--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.46</t>
+    <t xml:space="preserve">EA 23.54</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.74</t>
+    <t xml:space="preserve">EA 23.75 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="476">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -766,13 +766,16 @@
     <t xml:space="preserve">60</t>
   </si>
   <si>
-    <t xml:space="preserve">이끼풀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moss grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">苔草</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이끼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苔</t>
   </si>
   <si>
     <t xml:space="preserve">61</t>
@@ -1436,6 +1439,18 @@
   </si>
   <si>
     <t xml:space="preserve">フェイウッドの木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">코랄우드 나무</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coralwood tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コーラルウッドの木</t>
   </si>
 </sst>
 </file>
@@ -1664,12 +1679,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G120" activeCellId="0" sqref="G120"/>
+      <selection pane="bottomLeft" activeCell="J65" activeCellId="0" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2728,398 +2743,398 @@
         <v>246</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>9</v>
+        <v>247</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>130</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>170</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>146</v>
@@ -3133,24 +3148,24 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>145</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>145</v>
@@ -3167,7 +3182,7 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>145</v>
@@ -3184,7 +3199,7 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>145</v>
@@ -3201,160 +3216,160 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>104</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>104</v>
@@ -3371,7 +3386,7 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>104</v>
@@ -3388,47 +3403,47 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>104</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>104</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>104</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>106</v>
@@ -3439,291 +3454,308 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>104</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>104</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>106</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>202</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>202</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>202</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="527">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1523,6 +1523,87 @@
   </si>
   <si>
     <t xml:space="preserve">屋根9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지붕10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초록빛 풀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">緑の草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지붕11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지붕12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지붕13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지붕14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지붕15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根15</t>
   </si>
 </sst>
 </file>
@@ -1751,12 +1832,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="C136" activeCellId="0" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3930,6 +4011,125 @@
       </c>
       <c r="E128" s="0" t="s">
         <v>499</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="550">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1594,6 +1594,9 @@
     <t xml:space="preserve">지붕14</t>
   </si>
   <si>
+    <t xml:space="preserve">roof14</t>
+  </si>
+  <si>
     <t xml:space="preserve">屋根14</t>
   </si>
   <si>
@@ -1603,7 +1606,73 @@
     <t xml:space="preserve">지붕15</t>
   </si>
   <si>
+    <t xml:space="preserve">roof15</t>
+  </si>
+  <si>
     <t xml:space="preserve">屋根15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지붕16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지붕17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">네온라인</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neon line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ネオンライン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">산호초</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coral reef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珊瑚礁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">심해 해조류</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep seaweed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深海藻</t>
   </si>
 </sst>
 </file>
@@ -1616,7 +1685,7 @@
   <fonts count="4">
     <font>
       <sz val="10"/>
-      <name val="나눔고딕"/>
+      <name val="Noto Sans KR"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -1832,17 +1901,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C136" activeCellId="0" sqref="C136"/>
+      <selection pane="bottomLeft" activeCell="F140" activeCellId="0" sqref="F140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="0" width="14.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="0" width="16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4109,27 +4178,112 @@
         <v>522</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B135" s="0" t="s">
         <v>501</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>549</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="555">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1673,6 +1673,21 @@
   </si>
   <si>
     <t xml:space="preserve">深海藻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">카보치</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cabocchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カボチ</t>
   </si>
 </sst>
 </file>
@@ -1901,12 +1916,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F140" activeCellId="0" sqref="F140"/>
+      <selection pane="bottomLeft" activeCell="F142" activeCellId="0" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4284,6 +4299,23 @@
       </c>
       <c r="E140" s="0" t="s">
         <v>549</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.170</t>
+    <t xml:space="preserve">EA 23.173 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.187</t>
+    <t xml:space="preserve">EA 23.188 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.212</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229 Patch 3</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>
